--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1688.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1688.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7787285895286549</v>
+        <v>0.6534678339958191</v>
       </c>
       <c r="B1">
-        <v>4.018734051573334</v>
+        <v>0.9482837915420532</v>
       </c>
       <c r="C1">
-        <v>2.302169326629004</v>
+        <v>4.09104061126709</v>
       </c>
       <c r="D1">
-        <v>1.850995229172227</v>
+        <v>2.124695301055908</v>
       </c>
       <c r="E1">
-        <v>1.712792988339888</v>
+        <v>1.654451727867126</v>
       </c>
     </row>
   </sheetData>
